--- a/Mifos Automation Excels/Loan Product/2565-MS-EPP-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-NONE-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/2565-MS-EPP-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-NONE-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>productname</t>
   </si>
@@ -146,10 +146,13 @@
     <t>Equal principal payments</t>
   </si>
   <si>
-    <t>2565-MS-EPP-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-NONE</t>
-  </si>
-  <si>
     <t>Penalties, Fees, Interest, Principal order</t>
+  </si>
+  <si>
+    <t>256e</t>
+  </si>
+  <si>
+    <t>2565-MS-EPP-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-NONE-1st</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -551,15 +554,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>2565</v>
+      <c r="B2" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -663,7 +666,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -805,7 +808,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -819,7 +822,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
